--- a/Strategies.xlsx
+++ b/Strategies.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr fullPrecision="1" calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27" count="30">
   <si>
     <t>ID</t>
   </si>
@@ -87,30 +87,97 @@
   <si>
     <t>Price goes against Keltner channel with bigger multiplier;
 Price hit take profit which is either: 3x more than stop loss or we go and cross opposite side of the channel</t>
+  </si>
+  <si>
+    <t>FALCON_D</t>
+  </si>
+  <si>
+    <t>Test Basic Principle</t>
+  </si>
+  <si>
+    <t>Test Enrty Rule</t>
+  </si>
+  <si>
+    <t>Test Exit Rule</t>
+  </si>
+  <si>
+    <t>Test Market Inefficiency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2B579A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF2B579A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E7E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -118,22 +185,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF2B579A"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF2B579A"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ConditionalFormatStyle" xfId="1"/>
+    <cellStyle name="HeaderStyle" xfId="2"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
+  <dxfs xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
+  <tableStyles xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
@@ -406,24 +492,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView view="normal" tabSelected="1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="5" max="5" width="31.5" customWidth="1"/>
+    <col min="6" max="6" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="60">
       <c r="A2">
         <v>33</v>
       </c>
@@ -463,7 +550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="45">
       <c r="A3">
         <v>34</v>
       </c>
@@ -483,7 +570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="45">
       <c r="A4">
         <v>18</v>
       </c>
@@ -503,7 +590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="90">
       <c r="A5">
         <v>35</v>
       </c>
@@ -518,9 +605,31 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
+  <extLst/>
 </worksheet>
 </file>